--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1171.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1171.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.9012543898290142</v>
+        <v>1.166135549545288</v>
       </c>
       <c r="B1">
-        <v>1.463912351982827</v>
+        <v>2.435389995574951</v>
       </c>
       <c r="C1">
         <v>-1</v>
       </c>
       <c r="D1">
-        <v>2.669308346639889</v>
+        <v>2.368303537368774</v>
       </c>
       <c r="E1">
-        <v>1.467080216706818</v>
+        <v>1.234989285469055</v>
       </c>
     </row>
   </sheetData>
